--- a/data/trans_dic/P36$pan-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36$pan-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64,8; 75,96</t>
+          <t>64,94; 75,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>64,0; 75,36</t>
+          <t>63,27; 74,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75,29; 84,81</t>
+          <t>75,63; 84,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57,43; 69,59</t>
+          <t>57,22; 69,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>68,99; 79,51</t>
+          <t>68,9; 80,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,11; 84,22</t>
+          <t>74,75; 83,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,67; 71,15</t>
+          <t>63,21; 71,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>68,16; 75,9</t>
+          <t>68,2; 75,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>76,65; 83,47</t>
+          <t>76,56; 83,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,89; 83,88</t>
+          <t>76,76; 83,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,12; 83,11</t>
+          <t>76,35; 83,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,12; 89,86</t>
+          <t>83,82; 89,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,4; 88,46</t>
+          <t>82,46; 88,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,41; 89,52</t>
+          <t>83,41; 89,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,33; 94,13</t>
+          <t>89,2; 94,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,58; 85,52</t>
+          <t>80,6; 85,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>80,96; 85,73</t>
+          <t>80,81; 85,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,61; 91,29</t>
+          <t>87,52; 91,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,18; 88,49</t>
+          <t>80,83; 88,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,66; 85,94</t>
+          <t>77,66; 85,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,09; 87,82</t>
+          <t>79,96; 87,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,56; 88,36</t>
+          <t>80,34; 88,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>76,78; 85,06</t>
+          <t>76,69; 85,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,11; 89,42</t>
+          <t>82,17; 89,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,62; 87,29</t>
+          <t>81,45; 87,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>78,35; 84,5</t>
+          <t>78,48; 84,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>82,26; 87,91</t>
+          <t>82,1; 87,84</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>62,53; 72,23</t>
+          <t>62,75; 72,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,77; 83,79</t>
+          <t>74,89; 83,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>73,29; 82,8</t>
+          <t>73,43; 82,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>65,46; 75,04</t>
+          <t>65,5; 74,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,45; 88,67</t>
+          <t>81,21; 88,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,82; 87,66</t>
+          <t>80,3; 87,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,55; 72,32</t>
+          <t>66,09; 72,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>79,4; 84,91</t>
+          <t>79,43; 85,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>78,03; 83,77</t>
+          <t>78,1; 83,77</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57,57; 70,93</t>
+          <t>57,98; 71,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>65,22; 78,32</t>
+          <t>65,92; 79,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>87,13; 94,98</t>
+          <t>87,21; 95,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64,33; 76,38</t>
+          <t>63,2; 75,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>78,04; 88,1</t>
+          <t>78,31; 88,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,36; 91,46</t>
+          <t>83,34; 91,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>62,73; 71,92</t>
+          <t>62,8; 72,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>74,19; 82,06</t>
+          <t>73,96; 81,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>86,44; 92,3</t>
+          <t>86,63; 92,47</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>68,06; 78,45</t>
+          <t>67,23; 77,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>70,95; 81,18</t>
+          <t>70,53; 81,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>70,24; 81,05</t>
+          <t>69,68; 80,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>64,79; 75,62</t>
+          <t>65,04; 75,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>68,53; 78,92</t>
+          <t>68,8; 79,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78,62; 87,7</t>
+          <t>78,61; 87,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>68,3; 75,61</t>
+          <t>68,24; 75,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>71,58; 78,88</t>
+          <t>71,82; 78,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>76,28; 83,26</t>
+          <t>75,7; 83,04</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>73,86; 80,79</t>
+          <t>73,43; 80,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>73,74; 80,23</t>
+          <t>73,31; 80,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>80,11; 86,16</t>
+          <t>79,98; 86,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>73,59; 80,34</t>
+          <t>73,15; 80,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>74,42; 80,92</t>
+          <t>74,34; 80,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>84,77; 90,06</t>
+          <t>85,3; 90,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>74,69; 79,57</t>
+          <t>74,74; 79,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>75,09; 79,85</t>
+          <t>75,16; 80,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>83,5; 87,47</t>
+          <t>83,24; 87,35</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77,06; 83,05</t>
+          <t>77,28; 82,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>87,46; 91,97</t>
+          <t>87,2; 91,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>86,91; 91,43</t>
+          <t>86,83; 91,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>82,14; 87,27</t>
+          <t>82,03; 87,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>87,6; 92,03</t>
+          <t>87,6; 91,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>88,73; 92,8</t>
+          <t>88,79; 92,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>80,48; 84,42</t>
+          <t>80,35; 84,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>88,15; 91,36</t>
+          <t>88,2; 91,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>88,67; 91,69</t>
+          <t>88,56; 91,58</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>74,97; 77,83</t>
+          <t>74,98; 77,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>78,81; 81,67</t>
+          <t>78,62; 81,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>83,23; 85,62</t>
+          <t>83,13; 85,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>76,73; 79,51</t>
+          <t>76,77; 79,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>81,59; 84,13</t>
+          <t>81,58; 84,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>86,42; 88,65</t>
+          <t>86,45; 88,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>76,21; 78,31</t>
+          <t>76,3; 78,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>80,55; 82,46</t>
+          <t>80,67; 82,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>85,25; 86,85</t>
+          <t>85,23; 86,92</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, pan, tostadas, galletas, cereales, bollería, ...</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>191335</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>205596</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>236495</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>164938</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>214517</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>356273</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>420113</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>467019</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>176143; 205362</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>186486; 221019</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>222173; 249636</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>148631; 180779</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>197266; 229376</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>215795; 242255</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>335641; 377705</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>396265; 441260</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>445949; 485620</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>396785</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>402928</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>435413</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>431404</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>452694</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>480848</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>828189</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>855622</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>916261</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>377708; 413041</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>385165; 421723</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>419433; 449292</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>415541; 445830</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>435204; 467790</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>466569; 492042</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>802794; 848459</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>829282; 878010</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>895739; 935079</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>269824</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>265055</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>268257</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>284262</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>276839</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>289264</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>554086</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>541895</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>557521</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>257736; 281700</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>250959; 277226</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>254712; 279166</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>269482; 295728</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>261521; 290279</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>276359; 301625</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>532913; 571232</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>521242; 561143</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>537676; 575216</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>243155</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>296089</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>289216</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>261592</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>331411</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>326139</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>504747</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>627500</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>615355</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>224460; 259292</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>279255; 310756</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>271653; 304930</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>243292; 277795</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>315855; 344258</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>310981; 340228</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>481909; 529954</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>605170; 647852</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>591383; 634350</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>130649</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>154207</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>193634</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>145224</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>183220</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>192427</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>275873</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>337427</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>386060</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>117362; 144071</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>140165; 168318</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>184213; 200679</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>130622; 156730</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>171965; 193431</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>182164; 200639</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>256883; 295042</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>319658; 354063</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>372334; 397448</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>198842</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>209436</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>199378</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>195183</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>207303</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>227117</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>394025</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>416740</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>426495</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>182067; 210923</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>193226; 222021</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>183342; 212277</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>180911; 210487</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>191960; 221111</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>213758; 238461</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>374623; 415658</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>397158; 436816</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>405026; 444324</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>473134</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>511407</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>545169</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>490232</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>540126</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>605726</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>963366</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1051533</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1150895</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>450127; 492839</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>485870; 533092</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>523664; 564107</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>465419; 511677</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>515810; 561237</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>587910; 622303</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>933723; 993607</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1019616; 1085530</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1118799; 1173986</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>596052</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>696632</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>695103</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>664171</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>739070</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>752791</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1260223</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1435702</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1447894</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>574810; 616070</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>676909; 711920</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>676051; 711411</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>642738; 683334</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>719818; 755602</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>733564; 767453</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1227207; 1289543</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1409457; 1463453</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1421141; 1469572</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2451</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2568</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2733</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2573</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2721</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2914</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>5647</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2499777</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2741351</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2862664</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>2637007</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>2945181</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>3104836</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>5136784</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>5686532</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>5967500</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2451660; 2546062</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2689402; 2785872</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2818298; 2905288</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>2591023; 2683720</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>2897809; 2991591</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>3061402; 3139965</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>5070013; 5205592</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>5625395; 5756348</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>5907625; 6024899</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>